--- a/cubePuzzle/design.xlsx
+++ b/cubePuzzle/design.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\cube puzzle\cubePuzzle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Documents\cube puzzle\cubePuzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="7365" windowHeight="6915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7365" windowHeight="6915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="69">
   <si>
     <t>000</t>
   </si>
@@ -133,6 +133,105 @@
   </si>
   <si>
     <t>ids.append(</t>
+  </si>
+  <si>
+    <t>UFM</t>
+  </si>
+  <si>
+    <t>ULS</t>
+  </si>
+  <si>
+    <t>URS</t>
+  </si>
+  <si>
+    <t>UBM</t>
+  </si>
+  <si>
+    <t>LFE</t>
+  </si>
+  <si>
+    <t>FEM</t>
+  </si>
+  <si>
+    <t>UMS</t>
+  </si>
+  <si>
+    <t>RFE</t>
+  </si>
+  <si>
+    <t>LES</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>LBE</t>
+  </si>
+  <si>
+    <t>BEM</t>
+  </si>
+  <si>
+    <t>RBE</t>
+  </si>
+  <si>
+    <t>DFM</t>
+  </si>
+  <si>
+    <t>LDS</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>DRS</t>
+  </si>
+  <si>
+    <t>DBM</t>
+  </si>
+  <si>
+    <t>B=1</t>
+  </si>
+  <si>
+    <t>F=2</t>
+  </si>
+  <si>
+    <t>R=4</t>
+  </si>
+  <si>
+    <t>D=8</t>
+  </si>
+  <si>
+    <t>L=16</t>
+  </si>
+  <si>
+    <t>U=32</t>
+  </si>
+  <si>
+    <t>E=34</t>
+  </si>
+  <si>
+    <t>S=128</t>
+  </si>
+  <si>
+    <t>M=256</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -483,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,55 +1428,940 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C19:C26"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>256</v>
+      </c>
+      <c r="F1">
+        <v>128</v>
+      </c>
+      <c r="G1">
+        <v>64</v>
+      </c>
+      <c r="H1">
+        <v>32</v>
+      </c>
+      <c r="I1">
+        <v>16</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <f>32+16+2</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="2">
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="str">
+        <f>+Q2&amp;N2&amp;");"</f>
+        <v>ids.append(50);</v>
+      </c>
+      <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2">
+        <f>2+4+8</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <f>2+32+256</f>
+        <v>290</v>
+      </c>
+      <c r="O3">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S27" si="0">+Q3&amp;N3&amp;");"</f>
+        <v>ids.append(290);</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3">
+        <f>2+8+16</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <f>2+4+32</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="2">
+      <c r="O4">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(38);</v>
+      </c>
+      <c r="U4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4">
+        <f>2+4+32</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2">
+        <f>16+32+128</f>
+        <v>176</v>
+      </c>
+      <c r="O5">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(176);</v>
+      </c>
+      <c r="U5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5">
+        <f>32+16+2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <f>32+128+256</f>
+        <v>416</v>
+      </c>
+      <c r="O6">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(416);</v>
+      </c>
+      <c r="U6" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6">
+        <f>2+4+64</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <f>32+128+4</f>
+        <v>164</v>
+      </c>
+      <c r="O7">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(164);</v>
+      </c>
+      <c r="U7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7">
+        <f>2+16+64</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <f>1+16+32</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="2">
+      <c r="O8">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(49);</v>
+      </c>
+      <c r="U8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8">
+        <f>2+8+256</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <f>1+32+256</f>
+        <v>289</v>
+      </c>
+      <c r="O9">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(289);</v>
+      </c>
+      <c r="U9" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9">
+        <f>2+32+256</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <f>1+4+32</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="2">
+      <c r="O10">
+        <v>37</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(37);</v>
+      </c>
+      <c r="U10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" s="2">
+        <f>2+64+256</f>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <f>2+16+64</f>
+        <v>82</v>
+      </c>
+      <c r="O11">
+        <v>18</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(82);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="2">
+        <f>2+64+256</f>
+        <v>322</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(322);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <f>2+4+64</f>
+        <v>70</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(70);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="2">
+        <f>16+64+128</f>
+        <v>208</v>
+      </c>
+      <c r="O14">
+        <v>16</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(208);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="2">
+        <f>4+64+128</f>
+        <v>196</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(196);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <f>1+16+64</f>
+        <v>81</v>
+      </c>
+      <c r="O16">
+        <v>17</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(81);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="2">
+        <f>1+64+256</f>
+        <v>321</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(321);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18">
+        <f>1+4+64</f>
+        <v>69</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(69);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <f>2+8+16</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="2">
+      <c r="O19">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(26);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>201</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <f>2+8+256</f>
+        <v>266</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(266);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>202</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21">
+        <f>2+4+8</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="2">
+      <c r="O21">
+        <v>14</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(14);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>210</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <f>8+16+128</f>
+        <v>152</v>
+      </c>
+      <c r="O22">
+        <v>24</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(152);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>211</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="2">
+        <f>8+128+256</f>
+        <v>392</v>
+      </c>
+      <c r="O23">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(392);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>212</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <f>4+8+128</f>
+        <v>140</v>
+      </c>
+      <c r="O24">
+        <v>12</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(140);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>220</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <f>1+8+16</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="2">
+      <c r="O25">
+        <v>25</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(25);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>221</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26">
+        <f>1+8+256</f>
+        <v>265</v>
+      </c>
+      <c r="O26">
+        <v>9</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(265);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>222</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27">
+        <f>1+4+8</f>
         <v>13</v>
       </c>
+      <c r="O27">
+        <v>13</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="0"/>
+        <v>ids.append(13);</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="X2:X10">
+    <sortCondition ref="X2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
